--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>-0.9091272736756697</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>1.03793642088663</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.03829702038368805</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.5544631608661519</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.2883339380094571</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.4255996041829639</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.3548069402225765</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.3913181074896862</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.37248767473196</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.3821993830234399</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>0.3909962304746832</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>0.4244840248825612</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>0.4465275863131639</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.4425859323548781</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>0.4422169224839359</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.4424124267491494</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.4424029816508864</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.4423966315683863</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.4423977593120542</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.4423978665446827</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.4035833649879771</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.416705803991824</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.4116412840890523</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.4157744109737083</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.4167661449964701</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.4167672045639336</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.4037419760235987</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.4037393901544006</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.3839758163981372</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.383978254219205</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.3716437571361442</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.3715949529177499</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.3497982958360981</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.3498377974895463</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.3336367151059699</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.3337303803346539</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.3624902361250988</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.3626654807331532</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.3702551526106336</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.3703747577225128</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.3980732448304562</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.3986788290131321</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.4076717016231416</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.4076169705229901</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.4580112694088243</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.4588117208169146</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.4323580495522972</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.4323984583195804</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.4230694871455429</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.4228326148937978</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.4625161948866471</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.4368990905587076</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.4625069938804861</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.4611347597196567</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.4754828770855163</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.4322099265559883</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.4705876814386408</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.4878853746501777</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.5000829747580553</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.4883006896284322</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.5133797908899045</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.5412727967252919</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>-0.9091272736756697</v>
+        <v>2.068698868805536</v>
       </c>
       <c r="AS2">
-        <v>0.512457532411738</v>
+        <v>0.5097873556858414</v>
       </c>
       <c r="AT2">
-        <v>0.4586933435140003</v>
+        <v>0.4619893905475227</v>
       </c>
       <c r="AU2">
-        <v>0.6096934484336397</v>
+        <v>0.4127856309743143</v>
       </c>
       <c r="AV2">
-        <v>0.5872844834843262</v>
+        <v>0.7409775085278344</v>
       </c>
       <c r="AW2">
-        <v>0.5220310903795496</v>
+        <v>0.2722359111789694</v>
       </c>
       <c r="AX2">
-        <v>0.5981638006715656</v>
+        <v>0.3466553154471371</v>
       </c>
       <c r="AY2">
-        <v>0.6689982436522548</v>
+        <v>0.4547173684135706</v>
       </c>
       <c r="AZ2">
-        <v>0.5585083094969138</v>
+        <v>0.7713677833284043</v>
       </c>
       <c r="BA2">
-        <v>0.5100864351442977</v>
+        <v>0.458921116710881</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>1.03793642088663</v>
+        <v>-0.6629420952268306</v>
       </c>
       <c r="AS3">
-        <v>0.3531815465673669</v>
+        <v>0.3687939654218279</v>
       </c>
       <c r="AT3">
-        <v>0.3779189921522212</v>
+        <v>0.385501686554784</v>
       </c>
       <c r="AU3">
-        <v>0.3879547243247343</v>
+        <v>0.4299966088186031</v>
       </c>
       <c r="AV3">
-        <v>0.387366879688159</v>
+        <v>0.4025702444372586</v>
       </c>
       <c r="AW3">
-        <v>0.4505495806979731</v>
+        <v>0.453200017128585</v>
       </c>
       <c r="AX3">
-        <v>0.4444981857487758</v>
+        <v>0.5043581966093352</v>
       </c>
       <c r="AY3">
-        <v>0.4862486154218104</v>
+        <v>0.517065839913431</v>
       </c>
       <c r="AZ3">
-        <v>0.4694970509338148</v>
+        <v>0.4567499705605705</v>
       </c>
       <c r="BA3">
-        <v>0.5045693137243209</v>
+        <v>0.4880886947593195</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.03829702038368805</v>
+        <v>0.8627066545622714</v>
       </c>
       <c r="AS4">
-        <v>0.4146609828341653</v>
+        <v>0.4133734203682616</v>
       </c>
       <c r="AT4">
-        <v>0.4037985701168185</v>
+        <v>0.4091523682493763</v>
       </c>
       <c r="AU4">
-        <v>0.4209312923645727</v>
+        <v>0.4204676026819955</v>
       </c>
       <c r="AV4">
-        <v>0.4231447324445135</v>
+        <v>0.4163175426915304</v>
       </c>
       <c r="AW4">
-        <v>0.4381762627891936</v>
+        <v>0.454150813188294</v>
       </c>
       <c r="AX4">
-        <v>0.4486546186219493</v>
+        <v>0.4538225064424998</v>
       </c>
       <c r="AY4">
-        <v>0.4885283624682289</v>
+        <v>0.4943207920579912</v>
       </c>
       <c r="AZ4">
-        <v>0.4950869306431774</v>
+        <v>0.4735544834167063</v>
       </c>
       <c r="BA4">
-        <v>0.4972456365920227</v>
+        <v>0.5055579785131434</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.5544631608661519</v>
+        <v>0.1159252846651977</v>
       </c>
       <c r="AS5">
-        <v>0.3918750811718839</v>
+        <v>0.3992837815885032</v>
       </c>
       <c r="AT5">
-        <v>0.3955124461500313</v>
+        <v>0.4018444969400549</v>
       </c>
       <c r="AU5">
-        <v>0.4234285345396526</v>
+        <v>0.4229040972803657</v>
       </c>
       <c r="AV5">
-        <v>0.4291287465464248</v>
+        <v>0.4438476201815144</v>
       </c>
       <c r="AW5">
-        <v>0.4494512152004546</v>
+        <v>0.4374925337182514</v>
       </c>
       <c r="AX5">
-        <v>0.4638891315703645</v>
+        <v>0.4566410603895278</v>
       </c>
       <c r="AY5">
-        <v>0.5034613223267189</v>
+        <v>0.4973016389163061</v>
       </c>
       <c r="AZ5">
-        <v>0.4936468357578846</v>
+        <v>0.493234165903074</v>
       </c>
       <c r="BA5">
-        <v>0.500267372685581</v>
+        <v>0.4970787446061912</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.2883339380094571</v>
+        <v>0.4986788075347309</v>
       </c>
       <c r="AS6">
-        <v>0.400380151985932</v>
+        <v>0.4037368847755007</v>
       </c>
       <c r="AT6">
-        <v>0.3981655427104898</v>
+        <v>0.4041025385657713</v>
       </c>
       <c r="AU6">
-        <v>0.4204474571624467</v>
+        <v>0.4225534707819829</v>
       </c>
       <c r="AV6">
-        <v>0.4235652165921945</v>
+        <v>0.4322305323801225</v>
       </c>
       <c r="AW6">
-        <v>0.4463721358285073</v>
+        <v>0.4436420490552689</v>
       </c>
       <c r="AX6">
-        <v>0.4576154309732696</v>
+        <v>0.4607918372510027</v>
       </c>
       <c r="AY6">
-        <v>0.498389931279091</v>
+        <v>0.4979242653021993</v>
       </c>
       <c r="AZ6">
-        <v>0.4920410852159464</v>
+        <v>0.4852090431150677</v>
       </c>
       <c r="BA6">
-        <v>0.4998273191980755</v>
+        <v>0.4985740217710199</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.4255996041829639</v>
+        <v>0.3057144899754574</v>
       </c>
       <c r="AS7">
-        <v>0.3972095177894013</v>
+        <v>0.4023294585806664</v>
       </c>
       <c r="AT7">
-        <v>0.3973160600904257</v>
+        <v>0.4034048319014839</v>
       </c>
       <c r="AU7">
-        <v>0.4213394889238211</v>
+        <v>0.4225473539901682</v>
       </c>
       <c r="AV7">
-        <v>0.4250155260025814</v>
+        <v>0.4339150383110228</v>
       </c>
       <c r="AW7">
-        <v>0.4464800442483278</v>
+        <v>0.4428409784523901</v>
       </c>
       <c r="AX7">
-        <v>0.4583438690470669</v>
+        <v>0.4589325549534881</v>
       </c>
       <c r="AY7">
-        <v>0.4987647752402616</v>
+        <v>0.4975167550839408</v>
       </c>
       <c r="AZ7">
-        <v>0.4927072605122887</v>
+        <v>0.4863416595652553</v>
       </c>
       <c r="BA7">
-        <v>0.4997271051559239</v>
+        <v>0.4987576275825445</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.3548069402225765</v>
+        <v>0.4035690672827907</v>
       </c>
       <c r="AS8">
-        <v>0.3983917700924138</v>
+        <v>0.4027742828771287</v>
       </c>
       <c r="AT8">
-        <v>0.3975880519736332</v>
+        <v>0.4036204145466417</v>
       </c>
       <c r="AU8">
-        <v>0.4212148571696035</v>
+        <v>0.4225681267650281</v>
       </c>
       <c r="AV8">
-        <v>0.4250171612343138</v>
+        <v>0.4344068822279311</v>
       </c>
       <c r="AW8">
-        <v>0.4467254059093643</v>
+        <v>0.4425868305174022</v>
       </c>
       <c r="AX8">
-        <v>0.4587524407543468</v>
+        <v>0.4592066884076895</v>
       </c>
       <c r="AY8">
-        <v>0.4990774369349928</v>
+        <v>0.4976045377335131</v>
       </c>
       <c r="AZ8">
-        <v>0.4926114597133319</v>
+        <v>0.4866050505216891</v>
       </c>
       <c r="BA8">
-        <v>0.4997990879445027</v>
+        <v>0.4985700197351937</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.3913181074896862</v>
+        <v>0.3540494108694104</v>
       </c>
       <c r="AS9">
-        <v>0.3979509541460917</v>
+        <v>0.4026336938675968</v>
       </c>
       <c r="AT9">
-        <v>0.3975009641595186</v>
+        <v>0.403553802201846</v>
       </c>
       <c r="AU9">
-        <v>0.4212019798752972</v>
+        <v>0.4225611475274962</v>
       </c>
       <c r="AV9">
-        <v>0.4248790201223831</v>
+        <v>0.4340604293618614</v>
       </c>
       <c r="AW9">
-        <v>0.4466233880927641</v>
+        <v>0.4427541232455977</v>
       </c>
       <c r="AX9">
-        <v>0.4585166470538797</v>
+        <v>0.4592950024559618</v>
       </c>
       <c r="AY9">
-        <v>0.4989431922001938</v>
+        <v>0.4976046361071923</v>
       </c>
       <c r="AZ9">
-        <v>0.492589562903889</v>
+        <v>0.4864244333794625</v>
       </c>
       <c r="BA9">
-        <v>0.4997823659200018</v>
+        <v>0.4986199155101607</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.37248767473196</v>
+        <v>0.3791276622070505</v>
       </c>
       <c r="AS10">
-        <v>0.3981153184123224</v>
+        <v>0.4026781277480263</v>
       </c>
       <c r="AT10">
-        <v>0.3975288484010551</v>
+        <v>0.403574384584421</v>
       </c>
       <c r="AU10">
-        <v>0.421214459205951</v>
+        <v>0.4225624983054956</v>
       </c>
       <c r="AV10">
-        <v>0.42492896742263</v>
+        <v>0.4341424432718207</v>
       </c>
       <c r="AW10">
-        <v>0.4466388644580502</v>
+        <v>0.4427144010904328</v>
       </c>
       <c r="AX10">
-        <v>0.4585619793843251</v>
+        <v>0.4592333395654288</v>
       </c>
       <c r="AY10">
-        <v>0.4989602030465912</v>
+        <v>0.4975985012308651</v>
       </c>
       <c r="AZ10">
-        <v>0.4926048895164024</v>
+        <v>0.4864644042184769</v>
       </c>
       <c r="BA10">
-        <v>0.4997821579800324</v>
+        <v>0.4986181434214205</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.3821993830234399</v>
+        <v>0.3664306429366952</v>
       </c>
       <c r="AS11">
-        <v>0.3980540330175104</v>
+        <v>0.4026640841913032</v>
       </c>
       <c r="AT11">
-        <v>0.3975199202756454</v>
+        <v>0.4035680248852727</v>
       </c>
       <c r="AU11">
-        <v>0.4212108793661302</v>
+        <v>0.422562394017864</v>
       </c>
       <c r="AV11">
-        <v>0.4249239534095212</v>
+        <v>0.4341452338696238</v>
       </c>
       <c r="AW11">
-        <v>0.4466425314840439</v>
+        <v>0.4427141982404669</v>
       </c>
       <c r="AX11">
-        <v>0.4585704778188461</v>
+        <v>0.4592475241575088</v>
       </c>
       <c r="AY11">
-        <v>0.4989661650629561</v>
+        <v>0.4976004676159436</v>
       </c>
       <c r="AZ11">
-        <v>0.4926014522284588</v>
+        <v>0.4864654248180942</v>
       </c>
       <c r="BA11">
-        <v>0.499783635796776</v>
+        <v>0.4986146243852339</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.4297128628298554</v>
       </c>
       <c r="AG53">
-        <v>0.7400559240030766</v>
+        <v>0.4366385111416097</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.481879595062938</v>
       </c>
       <c r="AG54">
-        <v>0.4544976647662438</v>
+        <v>0.7295197183084787</v>
       </c>
       <c r="AH54">
-        <v>0.5799273225930315</v>
+        <v>0.9275912302322158</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.475970741254258</v>
       </c>
       <c r="AG55">
-        <v>0.5704807921204744</v>
+        <v>0.4701978172126098</v>
       </c>
       <c r="AH55">
-        <v>0.5722224204703679</v>
+        <v>0.5850533844672896</v>
       </c>
       <c r="AI55">
-        <v>0.358923765212929</v>
+        <v>0.6003570629444777</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.4882961438157917</v>
       </c>
       <c r="AG56">
-        <v>0.4948870265411907</v>
+        <v>0.5633811691987478</v>
       </c>
       <c r="AH56">
-        <v>0.5479489494887432</v>
+        <v>0.6361557577498194</v>
       </c>
       <c r="AI56">
-        <v>0.5140557918623316</v>
+        <v>0.4200271841838043</v>
       </c>
       <c r="AJ56">
-        <v>0.3778087578829589</v>
+        <v>0.4065181709025916</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.4856751776414768</v>
       </c>
       <c r="AG57">
-        <v>0.5284419400128499</v>
+        <v>0.4951259448051447</v>
       </c>
       <c r="AH57">
-        <v>0.547308750522738</v>
+        <v>0.5550893589975171</v>
       </c>
       <c r="AI57">
-        <v>0.4632954584820148</v>
+        <v>0.5157841789690363</v>
       </c>
       <c r="AJ57">
-        <v>0.5716994774265716</v>
+        <v>0.409160426819199</v>
       </c>
       <c r="AK57">
-        <v>1.101723302856567</v>
+        <v>0.01099376095066101</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.4887160103500734</v>
       </c>
       <c r="AG58">
-        <v>0.5081450997695856</v>
+        <v>0.5232846039129652</v>
       </c>
       <c r="AH58">
-        <v>0.5423663176215826</v>
+        <v>0.5698448235725169</v>
       </c>
       <c r="AI58">
-        <v>0.4840564393561502</v>
+        <v>0.4939237565313165</v>
       </c>
       <c r="AJ58">
-        <v>0.4464307518087571</v>
+        <v>0.4637484460864807</v>
       </c>
       <c r="AK58">
-        <v>0.005416301507389781</v>
+        <v>0.820836961624788</v>
       </c>
       <c r="AL58">
-        <v>0.8236949011519434</v>
+        <v>2.441898857719527</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.4878084067899489</v>
       </c>
       <c r="AG59">
-        <v>0.5176953516747964</v>
+        <v>0.5049399639867334</v>
       </c>
       <c r="AH59">
-        <v>0.5424259916097569</v>
+        <v>0.5505628790032125</v>
       </c>
       <c r="AI59">
-        <v>0.4767754412668362</v>
+        <v>0.5027993755430125</v>
       </c>
       <c r="AJ59">
-        <v>0.5078786133240299</v>
+        <v>0.460283215434685</v>
       </c>
       <c r="AK59">
-        <v>0.7346554094653104</v>
+        <v>0.3311547804985221</v>
       </c>
       <c r="AL59">
-        <v>0.3172738824181198</v>
+        <v>-0.8372874663519541</v>
       </c>
       <c r="AM59">
-        <v>0.7041586444627154</v>
+        <v>0.6985634239684586</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.4885860436043677</v>
       </c>
       <c r="AG60">
-        <v>0.5121915371924795</v>
+        <v>0.5132108198674772</v>
       </c>
       <c r="AH60">
-        <v>0.5414123088672365</v>
+        <v>0.5546739246368566</v>
       </c>
       <c r="AI60">
-        <v>0.4796111624229824</v>
+        <v>0.5004069298918298</v>
       </c>
       <c r="AJ60">
-        <v>0.4702861760277061</v>
+        <v>0.4750293943573523</v>
       </c>
       <c r="AK60">
-        <v>0.2908645101290688</v>
+        <v>0.575013585398561</v>
       </c>
       <c r="AL60">
-        <v>0.5429438126115355</v>
+        <v>1.45313716102216</v>
       </c>
       <c r="AM60">
-        <v>0.38268434949132</v>
+        <v>0.3022710497229571</v>
       </c>
       <c r="AN60">
-        <v>0.4918449523364471</v>
+        <v>0.6747718412489763</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.4883006896284322</v>
       </c>
       <c r="AG61">
-        <v>0.5148823611552491</v>
+        <v>0.5082070035561321</v>
       </c>
       <c r="AH61">
-        <v>0.5414636280026728</v>
+        <v>0.5500658490655218</v>
       </c>
       <c r="AI61">
-        <v>0.4785834951238043</v>
+        <v>0.5012641239973585</v>
       </c>
       <c r="AJ61">
-        <v>0.4895322456978088</v>
+        <v>0.4729846607600792</v>
       </c>
       <c r="AK61">
-        <v>0.5761305476453815</v>
+        <v>0.4373270498986147</v>
       </c>
       <c r="AL61">
-        <v>0.4872203232942044</v>
+        <v>-0.1491819520556539</v>
       </c>
       <c r="AM61">
-        <v>0.5061010472851205</v>
+        <v>0.5792027005175489</v>
       </c>
       <c r="AN61">
-        <v>0.4609377173520111</v>
+        <v>0.3854531552012772</v>
       </c>
       <c r="AO61">
-        <v>0.1678990715131956</v>
+        <v>-0.6309196862611097</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.5133797908899045</v>
+        <v>0.5105961893711617</v>
       </c>
       <c r="AH62">
-        <v>0.5412542160607593</v>
+        <v>0.5511835456013612</v>
       </c>
       <c r="AI62">
-        <v>0.4789747201631037</v>
+        <v>0.5010130524365212</v>
       </c>
       <c r="AJ62">
-        <v>0.4781637928665377</v>
+        <v>0.4770527448088684</v>
       </c>
       <c r="AK62">
-        <v>0.3988719989430107</v>
+        <v>0.5089315963539823</v>
       </c>
       <c r="AL62">
-        <v>0.488522430646401</v>
+        <v>0.9713790798239287</v>
       </c>
       <c r="AM62">
-        <v>0.4631965612852782</v>
+        <v>0.4705846442186906</v>
       </c>
       <c r="AN62">
-        <v>0.4755439442872758</v>
+        <v>0.469202039214221</v>
       </c>
       <c r="AO62">
-        <v>0.6670944315307127</v>
+        <v>0.6354789855072864</v>
       </c>
       <c r="AP62">
-        <v>1.213367536971843</v>
+        <v>0.7154130901486367</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.5412727967252919</v>
+        <v>0.5500773893122956</v>
       </c>
       <c r="AI63">
-        <v>0.4788307311484218</v>
+        <v>0.5010977254543597</v>
       </c>
       <c r="AJ63">
-        <v>0.4841479476998526</v>
+        <v>0.4761998162613824</v>
       </c>
       <c r="AK63">
-        <v>0.5113427675000891</v>
+        <v>0.4696496451255446</v>
       </c>
       <c r="AL63">
-        <v>0.4947379338392972</v>
+        <v>0.1876726239761763</v>
       </c>
       <c r="AM63">
-        <v>0.4770913270335519</v>
+        <v>0.4953288436776486</v>
       </c>
       <c r="AN63">
-        <v>0.4714274071941278</v>
+        <v>0.4558909293510771</v>
       </c>
       <c r="AO63">
-        <v>0.5611375497705883</v>
+        <v>0.7491318745028579</v>
       </c>
       <c r="AP63">
-        <v>0.3258125681796841</v>
+        <v>0.4308774789538838</v>
       </c>
       <c r="AQ63">
-        <v>0.8652478790383289</v>
+        <v>0.6273832762740353</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PUBCON_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0.3909962304746832</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.4244840248825612</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>-0.04326638432534324</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.6841897413997075</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.01947797499291314</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.6344758626268775</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>0.3998390349146221</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.4238671462391124</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.4475910455664052</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.3897915698412459</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.3766510665934062</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.3861054529656504</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>0.5381578224807955</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.3133582146047727</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>2.441898857719527</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.6985634239684586</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.6747718412489763</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>-0.6309196862611097</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.7154130901486367</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>0.6273832762740353</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>2.068698868805536</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.5097873556858414</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.4619893905475227</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.4127856309743143</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.7409775085278344</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.2722359111789694</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.3466553154471371</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.4547173684135706</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.7713677833284043</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.458921116710881</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.4880886947593195</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.4322849306135402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.5055579785131434</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.5070298915095297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.4970787446061912</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.507551532258898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.4985740217710199</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.5015060205255966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.4987576275825445</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.5035546723560925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.4985700197351937</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.503320960716943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.4986199155101607</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.5032409843702599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.4986181434214205</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.5032869668510612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.4986146243852339</v>
+      </c>
+      <c r="AW72">
+        <v>0.503277349074597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.503277065156336</v>
       </c>
     </row>
   </sheetData>
